--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10940" windowWidth="51200" windowHeight="20960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="466">
   <si>
     <t>jira</t>
   </si>
@@ -1336,6 +1336,9 @@
     <t>oauthResponse</t>
   </si>
   <si>
+    <t>https://oidc-dev.api.ep.com/oauth/token</t>
+  </si>
+  <si>
     <t>client_id=5MrGaUmuplzAL08ZN87kMm89CdAlM3dz
 client_secret=SOmlVfTpvfaWbZLa
 scope=NotificationAPINotificationScope
@@ -1460,7 +1463,7 @@
     <t>open $(syspath|out|fullpath)/ep-logo.png $(syspath|out|fullpath)/background1.png $(syspath|out|fullpath)/background2.png</t>
   </si>
   <si>
-    <t>https://supercontent.com/oauth/token</t>
+    <t>"logout"</t>
   </si>
 </sst>
 </file>
@@ -3608,8 +3611,8 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3620,8 +3623,8 @@
     <col min="4" max="4" width="33.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="38" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="17.83203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.83203125" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -3881,7 +3884,9 @@
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
@@ -4062,7 +4067,9 @@
     </row>
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="C17" s="13" t="s">
         <v>60</v>
       </c>
@@ -15226,20 +15233,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.83203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="50.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="41" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="44.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44" style="10" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="14.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -15377,10 +15384,10 @@
         <v>424</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -15401,7 +15408,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -15424,7 +15431,7 @@
         <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -15447,10 +15454,10 @@
         <v>320</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -15472,10 +15479,10 @@
         <v>320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -15497,10 +15504,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -26764,18 +26771,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="33.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="24" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="13.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.1640625" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -26900,10 +26908,10 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>15</v>
@@ -26912,10 +26920,10 @@
         <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -26937,10 +26945,10 @@
         <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -26955,7 +26963,7 @@
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>60</v>
@@ -26964,13 +26972,13 @@
         <v>194</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -26991,7 +26999,7 @@
         <v>73</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -27007,7 +27015,7 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>60</v>
@@ -27016,13 +27024,13 @@
         <v>193</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -27043,7 +27051,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -27059,7 +27067,7 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>26</v>
@@ -27068,13 +27076,13 @@
         <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -27095,13 +27103,13 @@
         <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -27122,13 +27130,13 @@
         <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -43516,17 +43524,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.33203125" style="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="67.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="61" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="41" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
@@ -43654,7 +43662,7 @@
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -43664,13 +43672,13 @@
         <v>188</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>408</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -43691,13 +43699,13 @@
         <v>188</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -43718,13 +43726,13 @@
         <v>188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -43745,7 +43753,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -39,12 +39,13 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
     <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
-    <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
-    <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
-    <definedName name="ws">'#system'!$T$2:$T$16</definedName>
-    <definedName name="xml">'#system'!$U$2:$U$11</definedName>
+    <definedName name="target">'#system'!$A$2:$A$22</definedName>
+    <definedName name="web">'#system'!$R$2:$R$108</definedName>
+    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
+    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
+    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
+    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
+    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="478">
   <si>
     <t>jira</t>
   </si>
@@ -1483,13 +1484,31 @@
   <si>
     <t>nexial.ws.digest.realm</t>
   </si>
+  <si>
+    <t>story / feature</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1566,8 +1585,84 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1586,8 +1681,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1625,6 +1839,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1632,7 +2040,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,6 +2176,42 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2181,9 +2625,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2192,7 +2636,7 @@
     <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2242,22 +2686,25 @@
         <v>364</v>
       </c>
       <c r="Q1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>60</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>378</v>
       </c>
@@ -2307,22 +2754,25 @@
         <v>388</v>
       </c>
       <c r="Q2" t="s">
+        <v>475</v>
+      </c>
+      <c r="R2" t="s">
         <v>100</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>175</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>180</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>187</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2369,22 +2819,25 @@
         <v>389</v>
       </c>
       <c r="Q3" t="s">
+        <v>476</v>
+      </c>
+      <c r="R3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>176</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>181</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>371</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2428,22 +2881,25 @@
         <v>365</v>
       </c>
       <c r="Q4" t="s">
+        <v>477</v>
+      </c>
+      <c r="R4" t="s">
         <v>359</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>177</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>182</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>188</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2480,23 +2936,23 @@
       <c r="P5" t="s">
         <v>366</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>360</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>178</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>183</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>189</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2530,23 +2986,23 @@
       <c r="P6" t="s">
         <v>368</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>102</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>179</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>184</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>190</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2577,20 +3033,20 @@
       <c r="P7" t="s">
         <v>367</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>103</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>185</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>191</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>352</v>
       </c>
@@ -2621,20 +3077,20 @@
       <c r="P8" t="s">
         <v>369</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>104</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>186</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>192</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2662,17 +3118,17 @@
       <c r="P9" t="s">
         <v>370</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>214</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>193</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -2694,17 +3150,17 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>262</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>194</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2726,17 +3182,17 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>263</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>264</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -2755,14 +3211,14 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>105</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2781,14 +3237,14 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>331</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -2807,14 +3263,14 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>106</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2830,14 +3286,14 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>107</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>364</v>
       </c>
@@ -2853,16 +3309,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>78</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -2873,13 +3329,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -2890,13 +3346,13 @@
       <c r="I18" t="s">
         <v>399</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -2907,13 +3363,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -2924,13 +3380,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -2941,682 +3397,685 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
       <c r="C22" t="s">
         <v>230</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>70</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>71</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>73</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>74</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>362</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>363</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>336</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>273</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>297</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>298</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>299</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>308</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>317</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>342</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>314</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>315</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>376</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>377</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>350</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>318</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>274</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>358</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>319</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>309</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>337</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>275</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>286</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>292</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>281</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>276</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>293</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>277</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>278</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>310</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>300</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>345</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>282</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q92" t="s">
+    <row r="92">
+      <c r="R92" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q93" t="s">
+    <row r="93">
+      <c r="R93" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q94" t="s">
+    <row r="94">
+      <c r="R94" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q95" t="s">
+    <row r="95">
+      <c r="R95" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q96" t="s">
+    <row r="96">
+      <c r="R96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q97" t="s">
+    <row r="97">
+      <c r="R97" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q98" t="s">
+    <row r="98">
+      <c r="R98" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q99" t="s">
+    <row r="99">
+      <c r="R99" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q100" t="s">
+    <row r="100">
+      <c r="R100" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
+    <row r="101">
+      <c r="R101" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q102" t="s">
+    <row r="102">
+      <c r="R102" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q103" t="s">
+    <row r="103">
+      <c r="R103" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
+    <row r="104">
+      <c r="R104" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="105">
+      <c r="R105" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="106">
+      <c r="R106" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
+    <row r="107">
+      <c r="R107" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q108" t="s">
+    <row r="108">
+      <c r="R108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3629,7 +4088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -3666,10 +4125,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>21</v>
@@ -15250,7 +15709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD11E7D-6A49-C244-832D-D403644D7E7B}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -15288,10 +15747,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>21</v>
@@ -26788,7 +27247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAB20-D8A0-0042-9B49-2127E36CB9EE}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -26825,10 +27284,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>21</v>
@@ -43541,9 +44000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5463D676-F0B3-4D41-89AA-AD74042B8A9A}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="F1" pane="bottomLeft" sqref="E1:F1"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43579,10 +44038,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>1</v>
+        <v>473</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>21</v>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -38,14 +38,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$22</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="489">
   <si>
     <t>jira</t>
   </si>
@@ -1502,13 +1503,46 @@
   <si>
     <t>validate(prompt,responses,passResponses)</t>
   </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1661,8 +1695,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1800,8 +1910,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2033,6 +2262,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2040,7 +2463,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2177,40 +2600,76 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2625,9 +3084,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2683,24 +3142,27 @@
         <v>56</v>
       </c>
       <c r="P1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q1" t="s">
         <v>364</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>474</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2751,24 +3213,27 @@
         <v>222</v>
       </c>
       <c r="P2" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q2" t="s">
         <v>388</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>475</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>100</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>175</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>180</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>187</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2816,24 +3281,27 @@
         <v>223</v>
       </c>
       <c r="P3" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q3" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>476</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>101</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>181</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>371</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2878,24 +3346,27 @@
         <v>224</v>
       </c>
       <c r="P4" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q4" t="s">
         <v>365</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>477</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>359</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>177</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>182</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>188</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2934,21 +3405,24 @@
         <v>225</v>
       </c>
       <c r="P5" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q5" t="s">
         <v>366</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>178</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>183</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>189</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2984,21 +3458,24 @@
         <v>398</v>
       </c>
       <c r="P6" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q6" t="s">
         <v>368</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>102</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>179</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>184</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>190</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3031,18 +3508,21 @@
         <v>249</v>
       </c>
       <c r="P7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q7" t="s">
         <v>367</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>103</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>191</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3075,18 +3555,21 @@
         <v>250</v>
       </c>
       <c r="P8" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q8" t="s">
         <v>369</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>104</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>186</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>192</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3116,15 +3599,18 @@
         <v>251</v>
       </c>
       <c r="P9" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q9" t="s">
         <v>370</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>214</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>193</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3150,13 +3636,16 @@
       <c r="N10" t="s">
         <v>252</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>488</v>
+      </c>
+      <c r="S10" t="s">
         <v>262</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>194</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3182,13 +3671,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>263</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>264</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3211,10 +3700,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>105</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3237,10 +3726,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>331</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3263,10 +3752,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>106</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3286,16 +3775,16 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>107</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>478</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -3309,16 +3798,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>78</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -3329,13 +3818,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="C18" t="s">
         <v>261</v>
@@ -3346,13 +3835,13 @@
       <c r="I18" t="s">
         <v>399</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -3363,13 +3852,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>326</v>
@@ -3380,13 +3869,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
@@ -3397,13 +3886,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>230</v>
@@ -3411,18 +3900,21 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
       <c r="C23" t="s">
         <v>231</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3433,7 +3925,7 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3444,7 +3936,7 @@
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3455,7 +3947,7 @@
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3466,7 +3958,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3477,7 +3969,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3488,7 +3980,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3499,7 +3991,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3510,7 +4002,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3518,7 +4010,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3526,7 +4018,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3534,7 +4026,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3542,7 +4034,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3550,7 +4042,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3558,7 +4050,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>400</v>
       </c>
     </row>
@@ -3566,7 +4058,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3574,7 +4066,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3582,7 +4074,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3590,7 +4082,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3598,7 +4090,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3606,7 +4098,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3614,7 +4106,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3622,7 +4114,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3630,7 +4122,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3638,7 +4130,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3646,7 +4138,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3654,7 +4146,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3662,7 +4154,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3670,412 +4162,409 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>362</v>
-      </c>
-      <c r="R52" t="s">
+        <v>336</v>
+      </c>
+      <c r="S52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>363</v>
-      </c>
-      <c r="R53" t="s">
+        <v>273</v>
+      </c>
+      <c r="S53" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>336</v>
-      </c>
-      <c r="R54" t="s">
+        <v>297</v>
+      </c>
+      <c r="S54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>273</v>
-      </c>
-      <c r="R55" t="s">
+        <v>298</v>
+      </c>
+      <c r="S55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>297</v>
-      </c>
-      <c r="R56" t="s">
+        <v>299</v>
+      </c>
+      <c r="S56" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>298</v>
-      </c>
-      <c r="R57" t="s">
+        <v>308</v>
+      </c>
+      <c r="S57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="R58" t="s">
+        <v>317</v>
+      </c>
+      <c r="S58" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>308</v>
-      </c>
-      <c r="R59" t="s">
+        <v>342</v>
+      </c>
+      <c r="S59" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>317</v>
-      </c>
-      <c r="R60" t="s">
+        <v>314</v>
+      </c>
+      <c r="S60" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>342</v>
-      </c>
-      <c r="R61" t="s">
+        <v>315</v>
+      </c>
+      <c r="S61" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>314</v>
-      </c>
-      <c r="R62" t="s">
+        <v>376</v>
+      </c>
+      <c r="S62" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>315</v>
-      </c>
-      <c r="R63" t="s">
+        <v>377</v>
+      </c>
+      <c r="S63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>376</v>
-      </c>
-      <c r="R64" t="s">
+        <v>350</v>
+      </c>
+      <c r="S64" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>377</v>
-      </c>
-      <c r="R65" t="s">
+        <v>318</v>
+      </c>
+      <c r="S65" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>350</v>
-      </c>
-      <c r="R66" t="s">
+        <v>274</v>
+      </c>
+      <c r="S66" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>318</v>
-      </c>
-      <c r="R67" t="s">
+        <v>358</v>
+      </c>
+      <c r="S67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>274</v>
-      </c>
-      <c r="R68" t="s">
+        <v>319</v>
+      </c>
+      <c r="S68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>358</v>
-      </c>
-      <c r="R69" t="s">
+        <v>309</v>
+      </c>
+      <c r="S69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>319</v>
-      </c>
-      <c r="R70" t="s">
+        <v>479</v>
+      </c>
+      <c r="S70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>309</v>
-      </c>
-      <c r="R71" t="s">
+        <v>267</v>
+      </c>
+      <c r="S71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>267</v>
-      </c>
-      <c r="R72" t="s">
+        <v>349</v>
+      </c>
+      <c r="S72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>349</v>
-      </c>
-      <c r="R73" t="s">
+        <v>285</v>
+      </c>
+      <c r="S73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-      <c r="R74" t="s">
+        <v>291</v>
+      </c>
+      <c r="S74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>291</v>
-      </c>
-      <c r="R75" t="s">
+        <v>296</v>
+      </c>
+      <c r="S75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>296</v>
-      </c>
-      <c r="R76" t="s">
+        <v>337</v>
+      </c>
+      <c r="S76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="R77" t="s">
+        <v>275</v>
+      </c>
+      <c r="S77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="R78" t="s">
+        <v>286</v>
+      </c>
+      <c r="S78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="R79" t="s">
+        <v>292</v>
+      </c>
+      <c r="S79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="R80" t="s">
+        <v>281</v>
+      </c>
+      <c r="S80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="R81" t="s">
+        <v>276</v>
+      </c>
+      <c r="S81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="R82" t="s">
+        <v>293</v>
+      </c>
+      <c r="S82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="R83" t="s">
+        <v>277</v>
+      </c>
+      <c r="S83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="R84" t="s">
+        <v>278</v>
+      </c>
+      <c r="S84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="R85" t="s">
+        <v>310</v>
+      </c>
+      <c r="S85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="R86" t="s">
+        <v>316</v>
+      </c>
+      <c r="S86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="R87" t="s">
+        <v>300</v>
+      </c>
+      <c r="S87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="R88" t="s">
+        <v>345</v>
+      </c>
+      <c r="S88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="R89" t="s">
+        <v>282</v>
+      </c>
+      <c r="S89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="R90" t="s">
+        <v>283</v>
+      </c>
+      <c r="S90" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
-        <v>283</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>174</v>
       </c>
     </row>
@@ -15709,7 +16198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD11E7D-6A49-C244-832D-D403644D7E7B}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -27247,7 +27736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAB20-D8A0-0042-9B49-2127E36CB9EE}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -44000,7 +44489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5463D676-F0B3-4D41-89AA-AD74042B8A9A}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -20,11 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -37,16 +37,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="497">
   <si>
     <t>jira</t>
   </si>
@@ -1536,13 +1537,37 @@
   <si>
     <t>storeKeys(var,profile,keyPattern)</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1771,8 +1796,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="67">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2029,8 +2130,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2456,6 +2676,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2463,7 +2877,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2636,40 +3050,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3084,7 +3534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3145,24 +3595,27 @@
         <v>478</v>
       </c>
       <c r="Q1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R1" t="s">
         <v>364</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>474</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3201,10 +3654,10 @@
         <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="M2" t="s">
-        <v>401</v>
+        <v>493</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -3216,24 +3669,27 @@
         <v>480</v>
       </c>
       <c r="Q2" t="s">
+        <v>495</v>
+      </c>
+      <c r="R2" t="s">
         <v>388</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>475</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>100</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>175</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>180</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3284,24 +3740,27 @@
         <v>481</v>
       </c>
       <c r="Q3" t="s">
+        <v>496</v>
+      </c>
+      <c r="R3" t="s">
         <v>389</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>476</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>176</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>181</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>371</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3348,25 +3807,25 @@
       <c r="P4" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>365</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>477</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>177</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>182</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3407,22 +3866,22 @@
       <c r="P5" t="s">
         <v>483</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>366</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>178</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>189</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3460,22 +3919,22 @@
       <c r="P6" t="s">
         <v>484</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>368</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>102</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>190</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3507,22 +3966,25 @@
       <c r="N7" t="s">
         <v>249</v>
       </c>
+      <c r="O7" t="s">
+        <v>494</v>
+      </c>
       <c r="P7" t="s">
         <v>485</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>367</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>103</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>191</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3557,19 +4019,19 @@
       <c r="P8" t="s">
         <v>486</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>369</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>104</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>192</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3601,16 +4063,16 @@
       <c r="P9" t="s">
         <v>487</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>370</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>214</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>193</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3639,13 +4101,13 @@
       <c r="P10" t="s">
         <v>488</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>262</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>194</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3671,13 +4133,13 @@
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>264</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3700,10 +4162,10 @@
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>105</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3726,10 +4188,10 @@
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>331</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3752,10 +4214,10 @@
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>106</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3775,10 +4237,10 @@
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>107</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3787,7 +4249,7 @@
         <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>490</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -3798,19 +4260,19 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>489</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -3818,16 +4280,16 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -3835,16 +4297,16 @@
       <c r="I18" t="s">
         <v>399</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -3852,16 +4314,16 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -3869,16 +4331,16 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -3886,131 +4348,137 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="32">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4018,7 +4486,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4026,7 +4494,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4034,7 +4502,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4042,7 +4510,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4050,7 +4518,7 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>400</v>
       </c>
     </row>
@@ -4058,7 +4526,7 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4066,7 +4534,7 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4074,7 +4542,7 @@
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4082,7 +4550,7 @@
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4090,7 +4558,7 @@
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4098,7 +4566,7 @@
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4106,7 +4574,7 @@
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4114,7 +4582,7 @@
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4122,7 +4590,7 @@
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4130,7 +4598,7 @@
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4138,7 +4606,7 @@
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4146,7 +4614,7 @@
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4154,7 +4622,7 @@
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4162,7 +4630,7 @@
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4170,7 +4638,7 @@
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4178,7 +4646,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4186,7 +4654,7 @@
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4194,7 +4662,7 @@
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4202,7 +4670,7 @@
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4210,7 +4678,7 @@
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4218,7 +4686,7 @@
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4226,7 +4694,7 @@
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>396</v>
       </c>
     </row>
@@ -4234,7 +4702,7 @@
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4242,7 +4710,7 @@
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4250,7 +4718,7 @@
       <c r="E62" t="s">
         <v>376</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4258,7 +4726,7 @@
       <c r="E63" t="s">
         <v>377</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4266,7 +4734,7 @@
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4274,7 +4742,7 @@
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4282,7 +4750,7 @@
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4290,7 +4758,7 @@
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4298,273 +4766,276 @@
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>309</v>
-      </c>
-      <c r="S69" t="s">
+        <v>491</v>
+      </c>
+      <c r="T69" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>479</v>
-      </c>
-      <c r="S70" t="s">
+        <v>309</v>
+      </c>
+      <c r="T70" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>267</v>
-      </c>
-      <c r="S71" t="s">
+        <v>479</v>
+      </c>
+      <c r="T71" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>349</v>
-      </c>
-      <c r="S72" t="s">
+        <v>267</v>
+      </c>
+      <c r="T72" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>285</v>
-      </c>
-      <c r="S73" t="s">
+        <v>349</v>
+      </c>
+      <c r="T73" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>291</v>
-      </c>
-      <c r="S74" t="s">
+        <v>285</v>
+      </c>
+      <c r="T74" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>296</v>
-      </c>
-      <c r="S75" t="s">
+        <v>291</v>
+      </c>
+      <c r="T75" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>337</v>
-      </c>
-      <c r="S76" t="s">
+        <v>296</v>
+      </c>
+      <c r="T76" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>275</v>
-      </c>
-      <c r="S77" t="s">
+        <v>337</v>
+      </c>
+      <c r="T77" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>286</v>
-      </c>
-      <c r="S78" t="s">
+        <v>275</v>
+      </c>
+      <c r="T78" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>292</v>
-      </c>
-      <c r="S79" t="s">
+        <v>286</v>
+      </c>
+      <c r="T79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>281</v>
-      </c>
-      <c r="S80" t="s">
+        <v>292</v>
+      </c>
+      <c r="T80" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>276</v>
-      </c>
-      <c r="S81" t="s">
+        <v>281</v>
+      </c>
+      <c r="T81" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="S82" t="s">
+        <v>276</v>
+      </c>
+      <c r="T82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>277</v>
-      </c>
-      <c r="S83" t="s">
+        <v>293</v>
+      </c>
+      <c r="T83" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>278</v>
-      </c>
-      <c r="S84" t="s">
+        <v>277</v>
+      </c>
+      <c r="T84" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>310</v>
-      </c>
-      <c r="S85" t="s">
+        <v>278</v>
+      </c>
+      <c r="T85" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>316</v>
-      </c>
-      <c r="S86" t="s">
+        <v>310</v>
+      </c>
+      <c r="T86" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>300</v>
-      </c>
-      <c r="S87" t="s">
+        <v>316</v>
+      </c>
+      <c r="T87" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>345</v>
-      </c>
-      <c r="S88" t="s">
+        <v>300</v>
+      </c>
+      <c r="T88" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>282</v>
-      </c>
-      <c r="S89" t="s">
+        <v>345</v>
+      </c>
+      <c r="T89" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
+        <v>282</v>
+      </c>
+      <c r="T90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
         <v>283</v>
       </c>
-      <c r="S90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="92">
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="93">
-      <c r="S93" t="s">
+      <c r="T93" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94">
-      <c r="S94" t="s">
+      <c r="T94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95">
-      <c r="S95" t="s">
+      <c r="T95" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96">
-      <c r="S96" t="s">
+      <c r="T96" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97">
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="98">
-      <c r="S98" t="s">
+      <c r="T98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="99">
-      <c r="S99" t="s">
+      <c r="T99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="100">
-      <c r="S100" t="s">
+      <c r="T100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101">
-      <c r="S101" t="s">
+      <c r="T101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="102">
-      <c r="S102" t="s">
+      <c r="T102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="103">
-      <c r="S103" t="s">
+      <c r="T103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="104">
-      <c r="S104" t="s">
+      <c r="T104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="S105" t="s">
+      <c r="T105" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="106">
-      <c r="S106" t="s">
+      <c r="T106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107">
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108">
-      <c r="S108" t="s">
+      <c r="T108" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -47,7 +47,7 @@
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
     <definedName name="step">'#system'!$S$2:$S$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="502">
   <si>
     <t>jira</t>
   </si>
@@ -1561,13 +1561,28 @@
   <si>
     <t>warp(repeats)</t>
   </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1872,8 +1887,178 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="67">
+  <fills count="115">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2249,8 +2434,280 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -2870,6 +3327,482 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2877,7 +3810,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3086,40 +4019,121 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="66" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3669,7 +4683,7 @@
         <v>480</v>
       </c>
       <c r="Q2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="R2" t="s">
         <v>388</v>
@@ -3740,7 +4754,7 @@
         <v>481</v>
       </c>
       <c r="Q3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="R3" t="s">
         <v>389</v>
@@ -3807,6 +4821,9 @@
       <c r="P4" t="s">
         <v>482</v>
       </c>
+      <c r="Q4" t="s">
+        <v>499</v>
+      </c>
       <c r="R4" t="s">
         <v>365</v>
       </c>
@@ -3866,6 +4883,9 @@
       <c r="P5" t="s">
         <v>483</v>
       </c>
+      <c r="Q5" t="s">
+        <v>500</v>
+      </c>
       <c r="R5" t="s">
         <v>366</v>
       </c>
@@ -4396,7 +5416,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -4407,7 +5427,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -4418,7 +5438,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -4429,7 +5449,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -4440,7 +5460,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -4451,7 +5471,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -4462,7 +5482,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -4473,7 +5493,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -4483,6 +5503,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" t="s">
         <v>265</v>
       </c>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -24,30 +24,32 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="517">
   <si>
     <t>jira</t>
   </si>
@@ -1576,13 +1578,58 @@
   <si>
     <t>section(steps)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2057,8 +2104,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="115">
+  <fills count="142">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2706,8 +2847,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="111">
+  <borders count="139">
     <border>
       <left/>
       <right/>
@@ -3803,6 +4097,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3810,7 +4386,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4091,49 +4667,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="129" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4548,7 +5169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4609,27 +5230,33 @@
         <v>478</v>
       </c>
       <c r="Q1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R1" t="s">
         <v>489</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>364</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>474</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z1" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4665,13 +5292,13 @@
         <v>391</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>505</v>
       </c>
       <c r="L2" t="s">
         <v>492</v>
       </c>
       <c r="M2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="N2" t="s">
         <v>258</v>
@@ -4683,27 +5310,33 @@
         <v>480</v>
       </c>
       <c r="Q2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R2" t="s">
         <v>497</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>388</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>475</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>175</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>180</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>511</v>
+      </c>
+      <c r="Z2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4739,10 +5372,10 @@
         <v>339</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>507</v>
       </c>
       <c r="N3" t="s">
         <v>245</v>
@@ -4753,28 +5386,31 @@
       <c r="P3" t="s">
         <v>481</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>498</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>389</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>476</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>101</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>176</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>181</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>371</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4807,7 +5443,7 @@
         <v>340</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4821,28 +5457,31 @@
       <c r="P4" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>499</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>365</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>477</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>177</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>182</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>188</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4869,7 +5508,7 @@
         <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
@@ -4883,25 +5522,28 @@
       <c r="P5" t="s">
         <v>483</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>500</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>366</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>178</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>183</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>189</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z5" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4925,7 +5567,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
@@ -4939,22 +5581,25 @@
       <c r="P6" t="s">
         <v>484</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>368</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>102</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>179</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>184</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>190</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z6" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4978,7 +5623,7 @@
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -4992,19 +5637,22 @@
       <c r="P7" t="s">
         <v>485</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>367</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>103</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>191</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z7" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5028,7 +5676,7 @@
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -5039,19 +5687,22 @@
       <c r="P8" t="s">
         <v>486</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>369</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>192</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5072,7 +5723,7 @@
         <v>397</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -5083,16 +5734,16 @@
       <c r="P9" t="s">
         <v>487</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>370</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>214</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>193</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5110,10 +5761,10 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>508</v>
       </c>
       <c r="N10" t="s">
         <v>252</v>
@@ -5121,13 +5772,13 @@
       <c r="P10" t="s">
         <v>488</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>262</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>194</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5145,21 +5796,21 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
         <v>253</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>263</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>264</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5176,16 +5827,19 @@
       <c r="I12" t="s">
         <v>84</v>
       </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>254</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>105</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5203,15 +5857,15 @@
         <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
         <v>259</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>331</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5229,15 +5883,15 @@
         <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14" t="s">
         <v>255</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>106</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5254,13 +5908,16 @@
       <c r="I15" t="s">
         <v>87</v>
       </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
       <c r="N15" t="s">
         <v>256</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>107</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5280,16 +5937,16 @@
       <c r="N16" t="s">
         <v>257</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -5300,13 +5957,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -5317,13 +5974,13 @@
       <c r="I18" t="s">
         <v>399</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
         <v>261</v>
@@ -5334,13 +5991,13 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -5351,13 +6008,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>326</v>
@@ -5368,13 +6025,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -5382,13 +6039,13 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>230</v>
@@ -5396,13 +6053,13 @@
       <c r="E23" t="s">
         <v>295</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>231</v>
@@ -5410,29 +6067,35 @@
       <c r="E24" t="s">
         <v>284</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>503</v>
+      </c>
       <c r="C25" t="s">
         <v>501</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
       <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5443,7 +6106,7 @@
       <c r="E27" t="s">
         <v>271</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5454,7 +6117,7 @@
       <c r="E28" t="s">
         <v>288</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5465,7 +6128,7 @@
       <c r="E29" t="s">
         <v>289</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5476,7 +6139,7 @@
       <c r="E30" t="s">
         <v>221</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5487,7 +6150,7 @@
       <c r="E31" t="s">
         <v>280</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5498,7 +6161,7 @@
       <c r="E32" t="s">
         <v>290</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5509,7 +6172,7 @@
       <c r="E33" t="s">
         <v>265</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5517,7 +6180,7 @@
       <c r="E34" t="s">
         <v>335</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5525,7 +6188,7 @@
       <c r="E35" t="s">
         <v>312</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5533,7 +6196,7 @@
       <c r="E36" t="s">
         <v>266</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5541,524 +6204,532 @@
       <c r="E37" t="s">
         <v>313</v>
       </c>
-      <c r="T37" t="s">
-        <v>400</v>
+      <c r="U37" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="T38" t="s">
-        <v>125</v>
+      <c r="U38" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>81</v>
       </c>
-      <c r="T39" t="s">
-        <v>126</v>
+      <c r="U39" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="T40" t="s">
-        <v>127</v>
+      <c r="U40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>294</v>
       </c>
-      <c r="T41" t="s">
-        <v>128</v>
+      <c r="U41" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>305</v>
       </c>
-      <c r="T42" t="s">
-        <v>129</v>
+      <c r="U42" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>306</v>
       </c>
-      <c r="T43" t="s">
-        <v>130</v>
+      <c r="U43" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>348</v>
       </c>
-      <c r="T44" t="s">
-        <v>218</v>
+      <c r="U44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>347</v>
       </c>
-      <c r="T45" t="s">
-        <v>80</v>
+      <c r="U45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="T46" t="s">
-        <v>131</v>
+      <c r="U46" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>325</v>
       </c>
-      <c r="T47" t="s">
-        <v>132</v>
+      <c r="U47" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>344</v>
       </c>
-      <c r="T48" t="s">
-        <v>133</v>
+      <c r="U48" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>375</v>
       </c>
-      <c r="T49" t="s">
-        <v>134</v>
+      <c r="U49" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>307</v>
       </c>
-      <c r="T50" t="s">
-        <v>351</v>
+      <c r="U50" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>361</v>
       </c>
-      <c r="T51" t="s">
-        <v>135</v>
+      <c r="U51" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>336</v>
       </c>
-      <c r="T52" t="s">
-        <v>136</v>
+      <c r="U52" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="T53" t="s">
-        <v>137</v>
+      <c r="U53" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>297</v>
       </c>
-      <c r="T54" t="s">
-        <v>138</v>
+      <c r="U54" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>298</v>
       </c>
-      <c r="T55" t="s">
-        <v>139</v>
+      <c r="U55" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>299</v>
       </c>
-      <c r="T56" t="s">
-        <v>140</v>
+      <c r="U56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>308</v>
       </c>
-      <c r="T57" t="s">
-        <v>141</v>
+      <c r="U57" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>317</v>
       </c>
-      <c r="T58" t="s">
-        <v>219</v>
+      <c r="U58" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>342</v>
       </c>
-      <c r="T59" t="s">
-        <v>396</v>
+      <c r="U59" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>314</v>
       </c>
-      <c r="T60" t="s">
-        <v>142</v>
+      <c r="U60" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>315</v>
       </c>
-      <c r="T61" t="s">
-        <v>143</v>
+      <c r="U61" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>376</v>
       </c>
-      <c r="T62" t="s">
-        <v>144</v>
+      <c r="U62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>377</v>
       </c>
-      <c r="T63" t="s">
-        <v>145</v>
+      <c r="U63" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>350</v>
       </c>
-      <c r="T64" t="s">
-        <v>202</v>
+      <c r="U64" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>318</v>
       </c>
-      <c r="T65" t="s">
-        <v>203</v>
+      <c r="U65" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>274</v>
       </c>
-      <c r="T66" t="s">
-        <v>146</v>
+      <c r="U66" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>358</v>
       </c>
-      <c r="T67" t="s">
-        <v>147</v>
+      <c r="U67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>319</v>
       </c>
-      <c r="T68" t="s">
-        <v>148</v>
+      <c r="U68" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>491</v>
       </c>
-      <c r="T69" t="s">
-        <v>149</v>
+      <c r="U69" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>309</v>
       </c>
-      <c r="T70" t="s">
-        <v>150</v>
+      <c r="U70" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>479</v>
       </c>
-      <c r="T71" t="s">
-        <v>204</v>
+      <c r="U71" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="T72" t="s">
-        <v>205</v>
+      <c r="U72" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>349</v>
       </c>
-      <c r="T73" t="s">
-        <v>206</v>
+      <c r="U73" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>285</v>
       </c>
-      <c r="T74" t="s">
-        <v>207</v>
+      <c r="U74" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>291</v>
       </c>
-      <c r="T75" t="s">
-        <v>220</v>
+      <c r="U75" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>296</v>
       </c>
-      <c r="T76" t="s">
-        <v>151</v>
+      <c r="U76" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>337</v>
-      </c>
-      <c r="T77" t="s">
-        <v>208</v>
+        <v>504</v>
+      </c>
+      <c r="U77" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>275</v>
-      </c>
-      <c r="T78" t="s">
-        <v>152</v>
+        <v>337</v>
+      </c>
+      <c r="U78" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>286</v>
-      </c>
-      <c r="T79" t="s">
-        <v>209</v>
+        <v>275</v>
+      </c>
+      <c r="U79" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-      <c r="T80" t="s">
-        <v>210</v>
+        <v>286</v>
+      </c>
+      <c r="U80" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>281</v>
-      </c>
-      <c r="T81" t="s">
-        <v>211</v>
+        <v>292</v>
+      </c>
+      <c r="U81" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="T82" t="s">
-        <v>212</v>
+        <v>281</v>
+      </c>
+      <c r="U82" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-      <c r="T83" t="s">
-        <v>228</v>
+        <v>276</v>
+      </c>
+      <c r="U83" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>277</v>
-      </c>
-      <c r="T84" t="s">
-        <v>213</v>
+        <v>293</v>
+      </c>
+      <c r="U84" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>278</v>
-      </c>
-      <c r="T85" t="s">
-        <v>153</v>
+        <v>277</v>
+      </c>
+      <c r="U85" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>310</v>
-      </c>
-      <c r="T86" t="s">
-        <v>390</v>
+        <v>278</v>
+      </c>
+      <c r="U86" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>316</v>
-      </c>
-      <c r="T87" t="s">
-        <v>154</v>
+        <v>310</v>
+      </c>
+      <c r="U87" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>300</v>
-      </c>
-      <c r="T88" t="s">
-        <v>155</v>
+        <v>316</v>
+      </c>
+      <c r="U88" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>345</v>
-      </c>
-      <c r="T89" t="s">
-        <v>156</v>
+        <v>300</v>
+      </c>
+      <c r="U89" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>282</v>
-      </c>
-      <c r="T90" t="s">
-        <v>157</v>
+        <v>345</v>
+      </c>
+      <c r="U90" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>282</v>
+      </c>
+      <c r="U91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>283</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U92" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92">
-      <c r="T92" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93">
-      <c r="T93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94">
-      <c r="T94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95">
-      <c r="T95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96">
-      <c r="T96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97">
-      <c r="T97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98">
-      <c r="T98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99">
-      <c r="T99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100">
-      <c r="T100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101">
-      <c r="T101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102">
-      <c r="T102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103">
-      <c r="T103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="104">
-      <c r="T104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105">
-      <c r="T105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106">
-      <c r="T106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107">
-      <c r="T107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108">
-      <c r="T108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -40,7 +40,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="521">
   <si>
     <t>jira</t>
   </si>
@@ -1623,13 +1623,25 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="89" x14ac:knownFonts="1">
+  <fonts count="149" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2198,8 +2210,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="142">
+  <fills count="250">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3000,8 +3388,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="139">
+  <borders count="251">
     <border>
       <left/>
       <right/>
@@ -4379,6 +5379,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4386,7 +6514,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="177">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4712,49 +6840,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="144" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="147" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="150" fontId="92" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="156" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="159" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="162" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="171" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="177" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="183" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="186" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="189" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="189" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="198" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="201" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="204" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="124" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="210" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="213" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="216" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="228" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="231" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="237" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5169,7 +7477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6413,7 +8721,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64">
@@ -6421,7 +8729,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65">
@@ -6429,7 +8737,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66">
@@ -6437,7 +8745,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67">
@@ -6445,7 +8753,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68">
@@ -6453,7 +8761,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69">
@@ -6461,7 +8769,7 @@
         <v>491</v>
       </c>
       <c r="U69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
@@ -6469,7 +8777,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71">
@@ -6477,7 +8785,7 @@
         <v>479</v>
       </c>
       <c r="U71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72">
@@ -6485,7 +8793,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73">
@@ -6493,7 +8801,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74">
@@ -6501,7 +8809,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
@@ -6509,7 +8817,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76">
@@ -6517,7 +8825,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77">
@@ -6525,7 +8833,7 @@
         <v>504</v>
       </c>
       <c r="U77" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78">
@@ -6533,7 +8841,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79">
@@ -6541,7 +8849,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80">
@@ -6549,7 +8857,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>209</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81">
@@ -6557,7 +8865,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>210</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82">
@@ -6565,7 +8873,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83">
@@ -6573,7 +8881,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84">
@@ -6581,7 +8889,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85">
@@ -6589,7 +8897,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86">
@@ -6597,7 +8905,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87">
@@ -6605,7 +8913,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>390</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88">
@@ -6613,7 +8921,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89">
@@ -6621,7 +8929,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90">
@@ -6629,7 +8937,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91">
@@ -6637,7 +8945,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92">
@@ -6645,91 +8953,101 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -40,7 +40,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5021" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="522">
   <si>
     <t>jira</t>
   </si>
@@ -1635,13 +1635,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="149" x14ac:knownFonts="1">
+  <fonts count="179" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2586,8 +2589,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="250">
+  <fills count="304">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4000,8 +4191,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="251">
+  <borders count="307">
     <border>
       <left/>
       <right/>
@@ -6507,6 +7004,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6514,7 +7575,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7020,49 +8081,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="228" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="228" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="231" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="231" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="139" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="237" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="237" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="255" fontId="151" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="258" fontId="152" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="154" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="264" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="267" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="270" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="270" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="279" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="282" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="285" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="291" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="294" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7477,7 +8628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8689,7 +9840,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>219</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
@@ -8697,7 +9848,7 @@
         <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61">
@@ -8705,7 +9856,7 @@
         <v>315</v>
       </c>
       <c r="U61" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62">
@@ -8713,7 +9864,7 @@
         <v>376</v>
       </c>
       <c r="U62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63">
@@ -8721,7 +9872,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>517</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -8729,7 +9880,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>144</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65">
@@ -8737,7 +9888,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
@@ -8745,7 +9896,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
@@ -8753,7 +9904,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68">
@@ -8761,7 +9912,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69">
@@ -8769,7 +9920,7 @@
         <v>491</v>
       </c>
       <c r="U69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70">
@@ -8777,7 +9928,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71">
@@ -8785,7 +9936,7 @@
         <v>479</v>
       </c>
       <c r="U71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72">
@@ -8793,7 +9944,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73">
@@ -8801,7 +9952,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74">
@@ -8809,7 +9960,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75">
@@ -8817,7 +9968,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76">
@@ -8825,7 +9976,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77">
@@ -8833,7 +9984,7 @@
         <v>504</v>
       </c>
       <c r="U77" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78">
@@ -8841,7 +9992,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79">
@@ -8849,7 +10000,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -8857,7 +10008,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -8865,7 +10016,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82">
@@ -8873,7 +10024,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>209</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83">
@@ -8881,7 +10032,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -8889,7 +10040,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -8897,7 +10048,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86">
@@ -8905,7 +10056,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -8913,7 +10064,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88">
@@ -8921,7 +10072,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89">
@@ -8929,7 +10080,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90">
@@ -8937,7 +10088,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91">
@@ -8945,7 +10096,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
@@ -8953,101 +10104,106 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -40,7 +40,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="524">
   <si>
     <t>jira</t>
   </si>
@@ -1638,13 +1638,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="179" x14ac:knownFonts="1">
+  <fonts count="194" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2777,8 +2783,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="304">
+  <fills count="331">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4497,8 +4597,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="307">
+  <borders count="335">
     <border>
       <left/>
       <right/>
@@ -7568,6 +7821,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7575,7 +8110,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="222">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8171,49 +8706,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="279" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="279" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="282" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="282" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="285" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="285" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="169" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="291" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="291" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="294" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="294" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="303" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="306" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="309" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="312" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="318" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8628,7 +9208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9728,7 +10308,7 @@
         <v>347</v>
       </c>
       <c r="U45" t="s">
-        <v>218</v>
+        <v>522</v>
       </c>
     </row>
     <row r="46">
@@ -9736,7 +10316,7 @@
         <v>216</v>
       </c>
       <c r="U46" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47">
@@ -9744,7 +10324,7 @@
         <v>325</v>
       </c>
       <c r="U47" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -9752,7 +10332,7 @@
         <v>344</v>
       </c>
       <c r="U48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
@@ -9760,7 +10340,7 @@
         <v>375</v>
       </c>
       <c r="U49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
@@ -9768,7 +10348,7 @@
         <v>307</v>
       </c>
       <c r="U50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
@@ -9776,7 +10356,7 @@
         <v>361</v>
       </c>
       <c r="U51" t="s">
-        <v>351</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
@@ -9784,7 +10364,7 @@
         <v>336</v>
       </c>
       <c r="U52" t="s">
-        <v>135</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
@@ -9792,7 +10372,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -9800,7 +10380,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55">
@@ -9808,7 +10388,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56">
@@ -9816,7 +10396,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
@@ -9824,7 +10404,7 @@
         <v>308</v>
       </c>
       <c r="U57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
@@ -9832,7 +10412,7 @@
         <v>317</v>
       </c>
       <c r="U58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
@@ -9840,7 +10420,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>521</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60">
@@ -9848,7 +10428,7 @@
         <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>219</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
@@ -9856,7 +10436,7 @@
         <v>315</v>
       </c>
       <c r="U61" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
@@ -9864,7 +10444,7 @@
         <v>376</v>
       </c>
       <c r="U62" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63">
@@ -9872,7 +10452,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64">
@@ -9880,7 +10460,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>517</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
@@ -10164,46 +10744,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>167</v>
+        <v>523</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -21,16 +21,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -40,8 +40,8 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6366" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="530">
   <si>
     <t>jira</t>
   </si>
@@ -1644,13 +1644,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="194" x14ac:knownFonts="1">
+  <fonts count="239" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2877,8 +2895,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="331">
+  <fills count="412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4750,8 +5050,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="335">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -8103,6 +8862,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8110,7 +9715,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="267">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8751,49 +10356,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="306" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="306" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="309" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="309" fontId="181" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="312" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="312" fontId="182" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="184" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="318" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="318" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="324" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="324" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="324" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="333" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="336" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="339" fontId="197" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="199" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="345" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="348" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="351" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="357" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="360" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="363" fontId="211" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="366" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="214" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="372" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="378" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="387" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="390" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="393" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="399" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="405" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9208,7 +10948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9534,6 +11274,9 @@
       <c r="C5" t="s">
         <v>229</v>
       </c>
+      <c r="D5" t="s">
+        <v>524</v>
+      </c>
       <c r="E5" t="s">
         <v>341</v>
       </c>
@@ -9627,7 +11370,7 @@
         <v>102</v>
       </c>
       <c r="V6" t="s">
-        <v>179</v>
+        <v>528</v>
       </c>
       <c r="W6" t="s">
         <v>184</v>
@@ -9682,6 +11425,9 @@
       <c r="U7" t="s">
         <v>103</v>
       </c>
+      <c r="V7" t="s">
+        <v>529</v>
+      </c>
       <c r="W7" t="s">
         <v>185</v>
       </c>
@@ -9732,6 +11478,9 @@
       <c r="U8" t="s">
         <v>104</v>
       </c>
+      <c r="V8" t="s">
+        <v>179</v>
+      </c>
       <c r="W8" t="s">
         <v>186</v>
       </c>
@@ -9800,7 +11549,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>526</v>
       </c>
       <c r="M10" t="s">
         <v>508</v>
@@ -9835,7 +11584,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
         <v>96</v>
@@ -9867,7 +11616,7 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -9895,6 +11644,9 @@
       <c r="I13" t="s">
         <v>85</v>
       </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
       <c r="M13" t="s">
         <v>97</v>
       </c>
@@ -10045,7 +11797,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>525</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -10062,7 +11814,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -10078,6 +11830,9 @@
       <c r="E22" t="s">
         <v>304</v>
       </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
       <c r="U22" t="s">
         <v>113</v>
       </c>
@@ -10452,7 +12207,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>142</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64">
@@ -10460,7 +12215,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65">
@@ -10468,7 +12223,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66">
@@ -10476,7 +12231,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
@@ -10484,7 +12239,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
@@ -10492,7 +12247,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -10500,7 +12255,7 @@
         <v>491</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
@@ -10508,7 +12263,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -10516,7 +12271,7 @@
         <v>479</v>
       </c>
       <c r="U71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72">
@@ -10524,7 +12279,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73">
@@ -10532,7 +12287,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74">
@@ -10540,7 +12295,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75">
@@ -10548,7 +12303,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76">
@@ -10556,7 +12311,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
@@ -10564,7 +12319,7 @@
         <v>504</v>
       </c>
       <c r="U77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
@@ -10572,7 +12327,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79">
@@ -10580,7 +12335,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80">
@@ -10588,7 +12343,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81">
@@ -10596,7 +12351,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -10604,7 +12359,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83">
@@ -10612,7 +12367,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>209</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84">
@@ -10620,7 +12375,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85">
@@ -10628,7 +12383,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86">
@@ -10636,7 +12391,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87">
@@ -10644,7 +12399,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
@@ -10652,7 +12407,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89">
@@ -10660,7 +12415,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90">
@@ -10668,7 +12423,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
@@ -10676,7 +12431,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92">
@@ -10684,111 +12439,116 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>523</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>167</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7731" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8186" uniqueCount="530">
   <si>
     <t>jira</t>
   </si>
@@ -1668,7 +1668,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="239" x14ac:knownFonts="1">
+  <fonts count="254" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3177,8 +3177,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="412">
+  <fills count="439">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5509,8 +5603,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="447">
     <border>
       <left/>
       <right/>
@@ -9708,6 +9955,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9715,7 +10244,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="282">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10491,49 +11020,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="387" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="387" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="390" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="390" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="393" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="393" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="229" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="399" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="399" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="405" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="405" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="414" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="417" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="420" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="426" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="432" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -25,12 +25,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8186" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9100" uniqueCount="532">
   <si>
     <t>jira</t>
   </si>
@@ -1662,13 +1662,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="254" x14ac:knownFonts="1">
+  <fonts count="284" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3271,8 +3277,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="439">
+  <fills count="493">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5756,8 +5950,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="447">
+  <borders count="503">
     <border>
       <left/>
       <right/>
@@ -10237,6 +10737,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10244,7 +11308,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="312">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11065,49 +12129,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="414" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="414" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="417" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="417" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="420" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="420" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="243" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="244" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="426" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="426" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="429" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="429" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="432" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="432" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="454" fillId="441" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="444" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="447" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="259" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="453" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="456" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="459" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="468" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="471" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="474" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="480" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="486" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11710,7 +12864,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>530</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -11784,7 +12938,7 @@
         <v>394</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>531</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -11855,7 +13009,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -11917,7 +13071,7 @@
         <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -11973,13 +13127,13 @@
         <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="M7" t="s">
         <v>35</v>
@@ -12029,13 +13183,13 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
         <v>94</v>
@@ -12081,11 +13235,14 @@
       <c r="E9" t="s">
         <v>311</v>
       </c>
+      <c r="F9" t="s">
+        <v>329</v>
+      </c>
       <c r="I9" t="s">
         <v>397</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
         <v>95</v>
@@ -12119,11 +13276,14 @@
       <c r="E10" t="s">
         <v>357</v>
       </c>
+      <c r="F10" t="s">
+        <v>330</v>
+      </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>526</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>508</v>
@@ -12158,7 +13318,7 @@
         <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>526</v>
       </c>
       <c r="M11" t="s">
         <v>96</v>
@@ -12190,7 +13350,7 @@
         <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -12219,7 +13379,7 @@
         <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M13" t="s">
         <v>97</v>
@@ -12246,6 +13406,9 @@
       </c>
       <c r="I14" t="s">
         <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
       </c>
       <c r="M14" t="s">
         <v>98</v>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -20,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9100" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9562" uniqueCount="537">
   <si>
     <t>jira</t>
   </si>
@@ -1668,13 +1668,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="284" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3465,8 +3480,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="493">
+  <fills count="520">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6256,8 +6365,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="503">
+  <borders count="531">
     <border>
       <left/>
       <right/>
@@ -11301,6 +11563,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11308,7 +11852,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="327">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12219,49 +12763,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="468" borderId="482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="468" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="471" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="471" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="474" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="474" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="273" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="477" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="274" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="480" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="480" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="483" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="483" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="486" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="486" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="495" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="507" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="513" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12784,7 +13373,7 @@
         <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>533</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -12864,7 +13453,7 @@
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>530</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -12938,7 +13527,7 @@
         <v>394</v>
       </c>
       <c r="F4" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H4" t="s">
         <v>356</v>
@@ -13009,7 +13598,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>535</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -13071,7 +13660,7 @@
         <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>334</v>
+        <v>531</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -13127,7 +13716,7 @@
         <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -13183,7 +13772,7 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -13236,7 +13825,7 @@
         <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>329</v>
+        <v>536</v>
       </c>
       <c r="I9" t="s">
         <v>397</v>
@@ -13277,7 +13866,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -13314,6 +13903,9 @@
       <c r="E11" t="s">
         <v>279</v>
       </c>
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
       <c r="I11" t="s">
         <v>44</v>
       </c>
@@ -13346,6 +13938,9 @@
       <c r="E12" t="s">
         <v>268</v>
       </c>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
       <c r="I12" t="s">
         <v>84</v>
       </c>
@@ -13375,6 +13970,9 @@
       <c r="E13" t="s">
         <v>321</v>
       </c>
+      <c r="F13" t="s">
+        <v>330</v>
+      </c>
       <c r="I13" t="s">
         <v>85</v>
       </c>
@@ -13579,7 +14177,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>230</v>
+        <v>532</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -13593,7 +14191,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -13607,7 +14205,7 @@
         <v>503</v>
       </c>
       <c r="C25" t="s">
-        <v>501</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -13621,7 +14219,7 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -13632,7 +14230,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -13643,7 +14241,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -13654,7 +14252,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -13665,7 +14263,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -13676,7 +14274,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -13687,7 +14285,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -13698,7 +14296,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>265</v>
@@ -13708,6 +14306,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
       <c r="E34" t="s">
         <v>335</v>
       </c>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -40,7 +40,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9562" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10488" uniqueCount="539">
   <si>
     <t>jira</t>
   </si>
@@ -1683,13 +1683,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="329" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3574,8 +3580,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="520">
+  <fills count="574">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6518,8 +6712,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="531">
+  <borders count="587">
     <border>
       <left/>
       <right/>
@@ -11845,6 +12345,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11852,7 +12916,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="357">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12808,49 +13872,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="495" borderId="510" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="495" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="501" fontId="287" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="507" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="507" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="513" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="513" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="522" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="525" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="528" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="534" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="537" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="540" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="540" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="549" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="552" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="561" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="564" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13265,7 +14419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14657,7 +15811,7 @@
         <v>504</v>
       </c>
       <c r="U77" t="s">
-        <v>206</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78">
@@ -14665,7 +15819,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79">
@@ -14673,7 +15827,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80">
@@ -14681,7 +15835,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81">
@@ -14689,7 +15843,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
@@ -14697,7 +15851,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -14705,7 +15859,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84">
@@ -14713,7 +15867,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>209</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
@@ -14721,7 +15875,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -14729,7 +15883,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87">
@@ -14737,7 +15891,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88">
@@ -14745,7 +15899,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
@@ -14753,7 +15907,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90">
@@ -14761,7 +15915,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91">
@@ -14769,7 +15923,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
@@ -14777,116 +15931,121 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>523</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -40,7 +40,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10488" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10952" uniqueCount="540">
   <si>
     <t>jira</t>
   </si>
@@ -1689,13 +1689,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="329" x14ac:knownFonts="1">
+  <fonts count="344" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3768,8 +3771,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="574">
+  <fills count="601">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7018,8 +7115,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="587">
+  <borders count="615">
     <border>
       <left/>
       <right/>
@@ -12909,6 +13159,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12916,7 +13448,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="372">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13962,49 +14494,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="549" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="549" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="552" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="552" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="555" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="561" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="561" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="564" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="564" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="567" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="576" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="579" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="582" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="591" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14419,7 +14996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15755,7 +16332,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71">
@@ -15763,7 +16340,7 @@
         <v>479</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -15771,7 +16348,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -15779,7 +16356,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -15787,7 +16364,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
@@ -15795,7 +16372,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
@@ -15803,7 +16380,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -15811,7 +16388,7 @@
         <v>504</v>
       </c>
       <c r="U77" t="s">
-        <v>538</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
@@ -15819,7 +16396,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>206</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79">
@@ -15827,7 +16404,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80">
@@ -15835,7 +16412,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81">
@@ -15843,7 +16420,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82">
@@ -15851,7 +16428,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83">
@@ -15859,7 +16436,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84">
@@ -15867,7 +16444,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85">
@@ -15875,7 +16452,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86">
@@ -15883,7 +16460,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -15891,7 +16468,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -15899,7 +16476,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89">
@@ -15907,7 +16484,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
@@ -15915,7 +16492,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91">
@@ -15923,7 +16500,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -15931,121 +16508,126 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
-        <v>390</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>523</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -25,7 +25,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10952" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11417" uniqueCount="541">
   <si>
     <t>jira</t>
   </si>
@@ -1692,13 +1692,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="344" x14ac:knownFonts="1">
+  <fonts count="359" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3865,8 +3868,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="601">
+  <fills count="628">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7268,8 +7365,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="615">
+  <borders count="643">
     <border>
       <left/>
       <right/>
@@ -13441,6 +13691,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13448,7 +13980,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="372">
+  <cellXfs count="387">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14539,49 +15071,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="576" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="576" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="579" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="579" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="582" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="582" fontId="332" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="334" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="588" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="591" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="591" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="594" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="603" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="606" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="615" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="621" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15329,7 +15906,7 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H5" t="s">
         <v>353</v>
@@ -15391,7 +15968,7 @@
         <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -15447,7 +16024,7 @@
         <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>333</v>
+        <v>531</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -15503,7 +16080,7 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -15556,7 +16133,7 @@
         <v>311</v>
       </c>
       <c r="F9" t="s">
-        <v>536</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
         <v>397</v>
@@ -15597,7 +16174,7 @@
         <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>536</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -15635,7 +16212,7 @@
         <v>279</v>
       </c>
       <c r="F11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -15670,7 +16247,7 @@
         <v>268</v>
       </c>
       <c r="F12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
@@ -15702,7 +16279,7 @@
         <v>321</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I13" t="s">
         <v>85</v>
@@ -15732,6 +16309,9 @@
       </c>
       <c r="E14" t="s">
         <v>269</v>
+      </c>
+      <c r="F14" t="s">
+        <v>330</v>
       </c>
       <c r="I14" t="s">
         <v>86</v>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11417" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12349" uniqueCount="542">
   <si>
     <t>jira</t>
   </si>
@@ -1695,13 +1695,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="359" x14ac:knownFonts="1">
+  <fonts count="389" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3962,8 +3965,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="628">
+  <fills count="682">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7518,8 +7709,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="643">
+  <borders count="699">
     <border>
       <left/>
       <right/>
@@ -13973,6 +14470,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13980,7 +15041,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="417">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15116,49 +16177,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="603" borderId="622" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="603" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="606" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="606" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="609" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="609" fontId="347" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="349" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="615" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="615" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="618" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="618" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="621" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="621" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="630" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="633" fontId="361" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="636" fontId="362" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="364" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="642" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="645" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="648" fontId="368" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="648" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="654" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="660" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="663" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="669" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="672" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="675" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="675" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16314,7 +17465,7 @@
         <v>330</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>541</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
@@ -16343,7 +17494,7 @@
         <v>270</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M15" t="s">
         <v>99</v>
@@ -16369,7 +17520,7 @@
         <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
         <v>257</v>
@@ -16392,7 +17543,7 @@
         <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>387</v>
       </c>
       <c r="U17" t="s">
         <v>108</v>
@@ -16409,7 +17560,7 @@
         <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
         <v>109</v>
@@ -16426,7 +17577,7 @@
         <v>301</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>399</v>
       </c>
       <c r="U19" t="s">
         <v>110</v>
@@ -16443,7 +17594,7 @@
         <v>302</v>
       </c>
       <c r="I20" t="s">
-        <v>525</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
         <v>111</v>
@@ -16460,7 +17611,7 @@
         <v>303</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>525</v>
       </c>
       <c r="U21" t="s">
         <v>112</v>
@@ -16477,7 +17628,7 @@
         <v>304</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U22" t="s">
         <v>113</v>
@@ -16492,6 +17643,9 @@
       </c>
       <c r="E23" t="s">
         <v>295</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
       </c>
       <c r="U23" t="s">
         <v>114</v>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12349" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13285" uniqueCount="544">
   <si>
     <t>jira</t>
   </si>
@@ -1698,13 +1698,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="389" x14ac:knownFonts="1">
+  <fonts count="419" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4153,8 +4159,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="682">
+  <fills count="736">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8015,8 +8209,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="699">
+  <borders count="755">
     <border>
       <left/>
       <right/>
@@ -15034,6 +15534,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15041,7 +16105,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="447">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16267,49 +17331,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="660" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="660" fontId="376" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="663" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="663" fontId="377" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="669" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="669" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="672" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="672" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="675" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="675" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="675" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="675" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="684" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="390" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="687" fontId="391" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="690" fontId="392" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="394" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="696" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="699" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="702" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="702" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="711" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="714" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="717" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="723" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="726" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="729" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="729" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16903,7 +18057,7 @@
         <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>542</v>
       </c>
       <c r="D3" t="s">
         <v>372</v>
@@ -16977,7 +18131,7 @@
         <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -17048,7 +18202,7 @@
         <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>543</v>
       </c>
       <c r="D5" t="s">
         <v>524</v>
@@ -17113,7 +18267,7 @@
         <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>395</v>
@@ -17169,7 +18323,7 @@
         <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="E7" t="s">
         <v>373</v>
@@ -17225,7 +18379,7 @@
         <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E8" t="s">
         <v>374</v>
@@ -17278,7 +18432,7 @@
         <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>311</v>
@@ -17319,7 +18473,7 @@
         <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E10" t="s">
         <v>357</v>
@@ -17357,7 +18511,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="E11" t="s">
         <v>279</v>
@@ -17392,7 +18546,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="E12" t="s">
         <v>268</v>
@@ -17424,7 +18578,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
         <v>321</v>
@@ -17456,7 +18610,7 @@
         <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>269</v>
@@ -17488,7 +18642,7 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>270</v>
@@ -17514,7 +18668,7 @@
         <v>478</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s">
         <v>322</v>
@@ -17537,7 +18691,7 @@
         <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
@@ -17554,7 +18708,7 @@
         <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>490</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -17571,7 +18725,7 @@
         <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
         <v>301</v>
@@ -17588,7 +18742,7 @@
         <v>474</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
         <v>302</v>
@@ -17605,7 +18759,7 @@
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
         <v>303</v>
@@ -17622,7 +18776,7 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>304</v>
@@ -17639,7 +18793,7 @@
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>532</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
         <v>295</v>
@@ -17656,7 +18810,7 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>284</v>
@@ -17670,7 +18824,7 @@
         <v>503</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>532</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -17684,7 +18838,7 @@
         <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
         <v>287</v>
@@ -17695,7 +18849,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
         <v>271</v>
@@ -17706,7 +18860,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>501</v>
       </c>
       <c r="E28" t="s">
         <v>288</v>
@@ -17717,7 +18871,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>289</v>
@@ -17728,7 +18882,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>221</v>
@@ -17739,7 +18893,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>280</v>
@@ -17750,7 +18904,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>290</v>
@@ -17761,7 +18915,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>265</v>
@@ -17772,7 +18926,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
         <v>335</v>
@@ -17782,6 +18936,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
       <c r="E35" t="s">
         <v>312</v>
       </c>
@@ -17790,6 +18947,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
       <c r="E36" t="s">
         <v>266</v>
       </c>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -40,7 +40,7 @@
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13285" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13754" uniqueCount="545">
   <si>
     <t>jira</t>
   </si>
@@ -1704,13 +1704,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="419" x14ac:knownFonts="1">
+  <fonts count="434" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4347,8 +4350,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="736">
+  <fills count="763">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8515,8 +8612,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="755">
+  <borders count="783">
     <border>
       <left/>
       <right/>
@@ -16098,6 +16348,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16105,7 +16637,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="447">
+  <cellXfs count="462">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17421,49 +17953,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="711" borderId="734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="711" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="714" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="714" fontId="406" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="717" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="717" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="409" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="723" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="723" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="726" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="726" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="729" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="729" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="729" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="729" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="735" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="735" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="738" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="741" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="744" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="750" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="753" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="756" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="756" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="762" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17878,7 +18455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19090,7 +19667,7 @@
         <v>273</v>
       </c>
       <c r="U53" t="s">
-        <v>135</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54">
@@ -19098,7 +19675,7 @@
         <v>297</v>
       </c>
       <c r="U54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55">
@@ -19106,7 +19683,7 @@
         <v>298</v>
       </c>
       <c r="U55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
@@ -19114,7 +19691,7 @@
         <v>299</v>
       </c>
       <c r="U56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
@@ -19122,7 +19699,7 @@
         <v>308</v>
       </c>
       <c r="U57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
@@ -19130,7 +19707,7 @@
         <v>317</v>
       </c>
       <c r="U58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -19138,7 +19715,7 @@
         <v>342</v>
       </c>
       <c r="U59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -19146,7 +19723,7 @@
         <v>314</v>
       </c>
       <c r="U60" t="s">
-        <v>521</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61">
@@ -19154,7 +19731,7 @@
         <v>315</v>
       </c>
       <c r="U61" t="s">
-        <v>219</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62">
@@ -19162,7 +19739,7 @@
         <v>376</v>
       </c>
       <c r="U62" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63">
@@ -19170,7 +19747,7 @@
         <v>377</v>
       </c>
       <c r="U63" t="s">
-        <v>527</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64">
@@ -19178,7 +19755,7 @@
         <v>350</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65">
@@ -19186,7 +19763,7 @@
         <v>318</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -19194,7 +19771,7 @@
         <v>274</v>
       </c>
       <c r="U66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -19202,7 +19779,7 @@
         <v>358</v>
       </c>
       <c r="U67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68">
@@ -19210,7 +19787,7 @@
         <v>319</v>
       </c>
       <c r="U68" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
@@ -19218,7 +19795,7 @@
         <v>491</v>
       </c>
       <c r="U69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70">
@@ -19226,7 +19803,7 @@
         <v>309</v>
       </c>
       <c r="U70" t="s">
-        <v>539</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
@@ -19234,7 +19811,7 @@
         <v>479</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72">
@@ -19242,7 +19819,7 @@
         <v>267</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -19250,7 +19827,7 @@
         <v>349</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -19258,7 +19835,7 @@
         <v>285</v>
       </c>
       <c r="U74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -19266,7 +19843,7 @@
         <v>291</v>
       </c>
       <c r="U75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76">
@@ -19274,7 +19851,7 @@
         <v>296</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77">
@@ -19282,7 +19859,7 @@
         <v>504</v>
       </c>
       <c r="U77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -19290,7 +19867,7 @@
         <v>337</v>
       </c>
       <c r="U78" t="s">
-        <v>538</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
@@ -19298,7 +19875,7 @@
         <v>275</v>
       </c>
       <c r="U79" t="s">
-        <v>206</v>
+        <v>538</v>
       </c>
     </row>
     <row r="80">
@@ -19306,7 +19883,7 @@
         <v>286</v>
       </c>
       <c r="U80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -19314,7 +19891,7 @@
         <v>292</v>
       </c>
       <c r="U81" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -19322,7 +19899,7 @@
         <v>281</v>
       </c>
       <c r="U82" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83">
@@ -19330,7 +19907,7 @@
         <v>276</v>
       </c>
       <c r="U83" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84">
@@ -19338,7 +19915,7 @@
         <v>293</v>
       </c>
       <c r="U84" t="s">
-        <v>518</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -19346,7 +19923,7 @@
         <v>277</v>
       </c>
       <c r="U85" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86">
@@ -19354,7 +19931,7 @@
         <v>278</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87">
@@ -19362,7 +19939,7 @@
         <v>310</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -19370,7 +19947,7 @@
         <v>316</v>
       </c>
       <c r="U88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -19378,7 +19955,7 @@
         <v>300</v>
       </c>
       <c r="U89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90">
@@ -19386,7 +19963,7 @@
         <v>345</v>
       </c>
       <c r="U90" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -19394,7 +19971,7 @@
         <v>282</v>
       </c>
       <c r="U91" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92">
@@ -19402,126 +19979,131 @@
         <v>283</v>
       </c>
       <c r="U92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="U93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="U110" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="U111" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="U112" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="U113" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="U115" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="U116" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="U117" t="s">
         <v>174</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{CD017998-0A44-644A-B953-A36385EB0482}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="31560" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="440"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -23,17 +23,17 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -49,12 +49,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="611">
   <si>
     <t>description</t>
   </si>
@@ -1840,6 +1840,75 @@
   </si>
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1916,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2025,8 +2094,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2215,8 +2385,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2536,6 +2859,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2543,7 +3192,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2680,52 +3329,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="24" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="54" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3140,9 +3837,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3521,10 +4218,13 @@
         <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>334</v>
+        <v>589</v>
       </c>
       <c r="H5" t="s">
         <v>517</v>
+      </c>
+      <c r="I5" t="s">
+        <v>594</v>
       </c>
       <c r="J5" t="s">
         <v>349</v>
@@ -3592,7 +4292,7 @@
         <v>564</v>
       </c>
       <c r="G6" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H6" t="s">
         <v>513</v>
@@ -3654,11 +4354,14 @@
         <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
         <v>509</v>
       </c>
+      <c r="J7" t="s">
+        <v>595</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -3699,7 +4402,7 @@
         <v>496</v>
       </c>
       <c r="AD7" t="s">
-        <v>230</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8">
@@ -3713,7 +4416,7 @@
         <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H8" t="s">
         <v>326</v>
@@ -3755,7 +4458,7 @@
         <v>497</v>
       </c>
       <c r="AD8" t="s">
-        <v>231</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
@@ -3769,7 +4472,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="H9" t="s">
         <v>327</v>
@@ -3802,7 +4505,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>232</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10">
@@ -3813,7 +4516,7 @@
         <v>313</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
         <v>514</v>
@@ -3843,7 +4546,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -3854,7 +4557,7 @@
         <v>253</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
         <v>320</v>
@@ -3881,7 +4584,7 @@
         <v>257</v>
       </c>
       <c r="AD11" t="s">
-        <v>553</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -3892,7 +4595,7 @@
         <v>317</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>321</v>
@@ -3901,7 +4604,7 @@
         <v>388</v>
       </c>
       <c r="M12" t="s">
-        <v>505</v>
+        <v>596</v>
       </c>
       <c r="N12" t="s">
         <v>579</v>
@@ -3919,7 +4622,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>554</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -3930,7 +4633,7 @@
         <v>339</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>322</v>
@@ -3939,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -3954,7 +4657,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14">
@@ -3965,7 +4668,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="H14" t="s">
         <v>323</v>
@@ -3974,7 +4677,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>537</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -3989,7 +4692,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15">
@@ -4000,13 +4703,13 @@
         <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K15" t="s">
         <v>569</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>561</v>
@@ -4021,7 +4724,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16">
@@ -4032,13 +4735,13 @@
         <v>383</v>
       </c>
       <c r="G16" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>597</v>
       </c>
       <c r="Q16" t="s">
         <v>562</v>
@@ -4053,7 +4756,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17">
@@ -4064,11 +4767,14 @@
         <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
       <c r="Y17" t="s">
         <v>563</v>
       </c>
@@ -4076,7 +4782,7 @@
         <v>527</v>
       </c>
       <c r="AD17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18">
@@ -4087,16 +4793,19 @@
         <v>474</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>518</v>
       </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
       <c r="Y18" t="s">
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
@@ -4107,7 +4816,7 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s">
         <v>83</v>
@@ -4116,7 +4825,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>233</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20">
@@ -4127,7 +4836,7 @@
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K20" t="s">
         <v>84</v>
@@ -4136,7 +4845,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>234</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21">
@@ -4147,7 +4856,7 @@
         <v>254</v>
       </c>
       <c r="G21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" t="s">
         <v>378</v>
@@ -4156,7 +4865,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22">
@@ -4164,16 +4873,19 @@
         <v>473</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>588</v>
       </c>
       <c r="G22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K22" t="s">
         <v>532</v>
       </c>
       <c r="Y22" t="s">
         <v>541</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -4181,16 +4893,19 @@
         <v>355</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
       </c>
       <c r="Y23" t="s">
         <v>108</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="24">
@@ -4198,16 +4913,19 @@
         <v>458</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K24" t="s">
         <v>390</v>
       </c>
       <c r="Y24" t="s">
-        <v>109</v>
+        <v>598</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="25">
@@ -4215,16 +4933,19 @@
         <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>510</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="K25" t="s">
         <v>585</v>
       </c>
       <c r="Y25" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="26">
@@ -4232,16 +4953,19 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>510</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -4249,16 +4973,19 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
         <v>504</v>
       </c>
       <c r="Y27" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="28">
@@ -4266,16 +4993,16 @@
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>529</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -4283,16 +5010,16 @@
         <v>484</v>
       </c>
       <c r="E29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>113</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30">
@@ -4300,713 +5027,763 @@
         <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="Y30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>64</v>
+        <v>482</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="Y31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Y32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>565</v>
+        <v>283</v>
       </c>
       <c r="Y33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="Y34" t="s">
-        <v>118</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="Y35" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>306</v>
       </c>
-      <c r="Y38" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>265</v>
-      </c>
       <c r="Y39" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="Y40" t="s">
-        <v>120</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>298</v>
+        <v>590</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="Y46" t="s">
-        <v>501</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="Y48" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="Y49" t="s">
-        <v>126</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="Y50" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="Y51" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Y52" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Y53" t="s">
-        <v>526</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="Y54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="Y55" t="s">
-        <v>344</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="Y56" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y57" t="s">
-        <v>130</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="Y58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>310</v>
+        <v>591</v>
       </c>
       <c r="Y59" t="s">
-        <v>132</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="Y60" t="s">
-        <v>133</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y61" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Y62" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="Y63" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="Y64" t="s">
-        <v>500</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="Y65" t="s">
-        <v>543</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>311</v>
+        <v>367</v>
       </c>
       <c r="Y66" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="Y67" t="s">
-        <v>387</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Y69" t="s">
-        <v>137</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>475</v>
+        <v>267</v>
       </c>
       <c r="Y70" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>592</v>
       </c>
       <c r="Y71" t="s">
-        <v>139</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>463</v>
+        <v>312</v>
       </c>
       <c r="Y72" t="s">
-        <v>140</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>260</v>
+        <v>475</v>
       </c>
       <c r="Y73" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>566</v>
+        <v>302</v>
       </c>
       <c r="Y74" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="Y75" t="s">
-        <v>516</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="Y76" t="s">
-        <v>531</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>284</v>
+        <v>566</v>
       </c>
       <c r="Y77" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="Y78" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>485</v>
+        <v>278</v>
       </c>
       <c r="Y79" t="s">
-        <v>143</v>
+        <v>516</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="Y80" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>279</v>
+        <v>485</v>
       </c>
       <c r="Y82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="Y83" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y84" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Y86" t="s">
-        <v>515</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>271</v>
+        <v>593</v>
       </c>
       <c r="Y88" t="s">
-        <v>200</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="Y89" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="Y90" t="s">
-        <v>146</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="Y91" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="Y92" t="s">
-        <v>498</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="Y93" t="s">
-        <v>499</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>276</v>
       </c>
-      <c r="Y94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>221</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>570</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>571</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>572</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>149</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>152</v>
+        <v>572</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>153</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>502</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>167</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5019,7 +5796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16640,7 +17417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD11E7D-6A49-C244-832D-D403644D7E7B}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -28178,7 +28955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAB20-D8A0-0042-9B49-2127E36CB9EE}">
   <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -23,38 +23,39 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="622">
   <si>
     <t>description</t>
   </si>
@@ -1909,6 +1910,39 @@
   </si>
   <si>
     <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1950,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2195,8 +2229,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="61">
+  <fills count="115">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2538,8 +2774,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="127">
     <border>
       <left/>
       <right/>
@@ -3185,6 +3727,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3192,7 +4386,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3377,52 +4571,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="42" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="42" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="54" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="54" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="69" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="72" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="69" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="81" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="81" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="96" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="108" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3837,7 +5127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3862,81 +5152,84 @@
         <v>547</v>
       </c>
       <c r="E1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>331</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>573</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>533</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>237</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>462</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>483</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>473</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>355</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>458</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>484</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3954,81 +5247,84 @@
         <v>548</v>
       </c>
       <c r="E2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>511</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>528</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>313</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>382</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>486</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>574</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>538</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>476</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>487</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>251</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>215</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>464</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>490</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>478</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>379</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>459</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>492</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>552</v>
       </c>
     </row>
@@ -4045,76 +5341,76 @@
       <c r="D3" t="s">
         <v>584</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>519</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>363</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>534</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>347</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>339</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>332</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>575</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>539</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>488</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>238</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>216</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>465</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>479</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>380</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>460</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>175</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>362</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>182</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4128,82 +5424,82 @@
       <c r="D4" t="s">
         <v>549</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>385</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>512</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>535</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>348</v>
       </c>
-      <c r="K4" t="s">
-        <v>236</v>
-      </c>
       <c r="L4" t="s">
+        <v>620</v>
+      </c>
+      <c r="M4" t="s">
         <v>333</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>576</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>540</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>239</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>217</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>466</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>480</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>356</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>461</v>
       </c>
-      <c r="Y4" t="s">
-        <v>352</v>
-      </c>
       <c r="Z4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>176</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>182</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>493</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s">
         <v>373</v>
@@ -4211,73 +5507,73 @@
       <c r="D5" t="s">
         <v>550</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>520</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>503</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>589</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>517</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>594</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>349</v>
       </c>
-      <c r="K5" t="s">
-        <v>525</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>236</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>586</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>240</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>218</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>467</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>481</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>357</v>
       </c>
-      <c r="Y5" t="s">
-        <v>353</v>
-      </c>
       <c r="Z5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>177</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>183</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>494</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>374</v>
@@ -4285,1505 +5581,1519 @@
       <c r="D6" t="s">
         <v>551</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>564</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>513</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>346</v>
       </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>525</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>580</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>241</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>389</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>468</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>359</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>507</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>178</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>184</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>495</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>375</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>386</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>509</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>595</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
         <v>313</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>581</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>242</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>477</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>469</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>358</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>508</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>179</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>496</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>376</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>316</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>326</v>
       </c>
-      <c r="K8" t="s">
-        <v>567</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>582</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>91</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>243</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>470</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>360</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>173</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>180</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>497</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>377</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>365</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>327</v>
       </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>567</v>
+      </c>
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>587</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>244</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>471</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>361</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>313</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>304</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>514</v>
       </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>577</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>489</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>245</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>472</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>255</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>188</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" t="s">
         <v>350</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>320</v>
       </c>
-      <c r="K11" t="s">
-        <v>568</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
         <v>536</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>578</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>93</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>256</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>257</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>317</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>272</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>321</v>
       </c>
-      <c r="K12" t="s">
-        <v>388</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>568</v>
+      </c>
+      <c r="N12" t="s">
         <v>596</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>579</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" t="s">
         <v>339</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" t="s">
         <v>505</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>94</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>190</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>573</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>314</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>323</v>
       </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>537</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>95</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>248</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>191</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>533</v>
-      </c>
-      <c r="E15" t="s">
+        <v>573</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>262</v>
       </c>
-      <c r="K15" t="s">
-        <v>569</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>561</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>249</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>192</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F16" t="s">
         <v>383</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>263</v>
       </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>569</v>
+      </c>
+      <c r="N16" t="s">
         <v>597</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>562</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>250</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>75</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>193</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
         <v>384</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>315</v>
       </c>
-      <c r="K17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>563</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>527</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
         <v>474</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" t="s">
-        <v>518</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" t="s">
+        <v>619</v>
+      </c>
+      <c r="H19" t="s">
         <v>90</v>
       </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>462</v>
-      </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>483</v>
-      </c>
-      <c r="E21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G21" t="s">
+        <v>462</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
         <v>295</v>
       </c>
-      <c r="K21" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>473</v>
-      </c>
-      <c r="E22" t="s">
-        <v>588</v>
-      </c>
-      <c r="G22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" t="s">
         <v>296</v>
       </c>
-      <c r="K22" t="s">
-        <v>532</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>615</v>
+      </c>
+      <c r="Z22" t="s">
         <v>541</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F23" t="s">
+        <v>588</v>
+      </c>
+      <c r="H23" t="s">
         <v>297</v>
       </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z23" t="s">
         <v>108</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>458</v>
-      </c>
-      <c r="E24" t="s">
-        <v>319</v>
-      </c>
-      <c r="G24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
         <v>288</v>
       </c>
-      <c r="K24" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s">
         <v>598</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
+        <v>458</v>
+      </c>
+      <c r="F25" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" t="s">
         <v>277</v>
       </c>
-      <c r="K25" t="s">
-        <v>585</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z25" t="s">
         <v>109</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>510</v>
-      </c>
-      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
         <v>76</v>
       </c>
-      <c r="K26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z26" t="s">
         <v>110</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" t="s">
+        <v>510</v>
+      </c>
+      <c r="H27" t="s">
         <v>280</v>
       </c>
-      <c r="K27" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z27" t="s">
         <v>111</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" t="s">
         <v>264</v>
       </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z28" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>484</v>
-      </c>
-      <c r="E29" t="s">
-        <v>529</v>
-      </c>
-      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" t="s">
         <v>281</v>
       </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>484</v>
+      </c>
+      <c r="F30" t="s">
+        <v>529</v>
+      </c>
+      <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>225</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>530</v>
       </c>
-      <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>482</v>
       </c>
-      <c r="G31" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G33" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
-        <v>565</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G35" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G36" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G38" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>71</v>
       </c>
-      <c r="G39" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>265</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Y41" t="s">
-        <v>600</v>
+      <c r="Z41" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>590</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>287</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>298</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>299</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>341</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>340</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>318</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>337</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>366</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>300</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>354</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>329</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>266</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>291</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>591</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>292</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>301</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>310</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>335</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>307</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>308</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>367</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>368</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>343</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>311</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>267</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>592</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>312</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>475</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>302</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>463</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>260</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>566</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>342</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>278</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>284</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>289</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>485</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>330</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>268</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>279</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>285</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>274</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>593</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>269</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>286</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>270</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>271</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>303</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>309</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>293</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>338</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>275</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>276</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -23,13 +23,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -49,7 +49,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="625">
   <si>
     <t>description</t>
   </si>
@@ -1943,6 +1943,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1959,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2431,8 +2440,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="115">
+  <fills count="169">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3080,8 +3291,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="127">
+  <borders count="191">
     <border>
       <left/>
       <right/>
@@ -4379,6 +4896,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4386,7 +5555,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4667,52 +5836,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="96" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="96" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="114" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="117" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="120" fontId="77" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="123" fontId="78" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="126" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="132" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="123" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="135" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="135" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="144" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="147" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="150" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="153" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="159" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="150" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5127,7 +6392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5593,6 +6858,9 @@
       <c r="I6" t="s">
         <v>513</v>
       </c>
+      <c r="J6" t="s">
+        <v>622</v>
+      </c>
       <c r="K6" t="s">
         <v>346</v>
       </c>
@@ -6109,7 +7377,7 @@
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>619</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -6129,7 +7397,7 @@
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -6149,7 +7417,7 @@
         <v>462</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="H21" t="s">
         <v>295</v>
@@ -6169,7 +7437,7 @@
         <v>483</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>588</v>
       </c>
       <c r="H22" t="s">
         <v>296</v>
@@ -6189,7 +7457,7 @@
         <v>473</v>
       </c>
       <c r="F23" t="s">
-        <v>588</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
         <v>297</v>
@@ -6209,7 +7477,7 @@
         <v>355</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H24" t="s">
         <v>288</v>
@@ -6229,7 +7497,7 @@
         <v>458</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
         <v>277</v>
@@ -6249,7 +7517,7 @@
         <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>510</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -6269,7 +7537,7 @@
         <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>510</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>280</v>
@@ -6289,7 +7557,7 @@
         <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>264</v>
@@ -6306,7 +7574,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>224</v>
+        <v>529</v>
       </c>
       <c r="H29" t="s">
         <v>281</v>
@@ -6323,7 +7591,7 @@
         <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H30" t="s">
         <v>282</v>
@@ -6340,7 +7608,7 @@
         <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
@@ -6351,7 +7619,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>482</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>273</v>
@@ -6362,7 +7630,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>283</v>
@@ -6373,7 +7641,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>565</v>
@@ -6384,7 +7652,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>258</v>
@@ -6395,7 +7663,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>328</v>
@@ -6406,7 +7674,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>305</v>
@@ -6417,7 +7685,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>259</v>
@@ -6428,7 +7696,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>306</v>
@@ -6438,9 +7706,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
         <v>265</v>
       </c>
@@ -6914,186 +8179,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>499</v>
+        <v>623</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>202</v>
+        <v>624</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>203</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>570</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>618</v>
+        <v>206</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>147</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>381</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>148</v>
+        <v>572</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>149</v>
+        <v>381</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>502</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>604</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>163</v>
+        <v>604</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>168</v>
       </c>
     </row>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4124" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="625">
   <si>
     <t>description</t>
   </si>
@@ -1959,7 +1959,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2642,8 +2642,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="169">
+  <fills count="196">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3597,8 +3698,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="191">
+  <borders count="223">
     <border>
       <left/>
       <right/>
@@ -5548,6 +5802,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5555,7 +6135,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="151">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5932,52 +6512,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="144" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="144" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="147" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="147" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="150" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="150" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="153" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="153" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="159" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="159" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="150" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="150" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="171" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="174" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="177" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="180" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="186" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="177" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="189" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="189" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/ws-04.xlsx
+++ b/artifact/script/ws-04.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5819" uniqueCount="625">
   <si>
     <t>description</t>
   </si>
@@ -1959,7 +1959,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2743,8 +2743,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="196">
+  <fills count="250">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3851,8 +4053,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="223">
+  <borders count="287">
     <border>
       <left/>
       <right/>
@@ -6128,6 +6636,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6135,7 +7295,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6560,52 +7720,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="171" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="171" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="174" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="174" fontId="109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="177" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="177" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="180" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="180" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="183" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="186" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="186" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="177" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="177" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="189" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="189" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="189" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="189" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="195" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="195" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="198" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="201" fontId="125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="204" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="207" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="210" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="213" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="204" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="216" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="216" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="222" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="225" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="228" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="231" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="234" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="237" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="240" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="231" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="243" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="243" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="249" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
